--- a/medicine/Maladie à coronavirus 2019/Paycheck_Protection_Program/Paycheck_Protection_Program.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Paycheck_Protection_Program/Paycheck_Protection_Program.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Paycheck Protection Program (PPP) est un programme de prêts aux entreprises de 953 milliards de dollars établi par le gouvernement fédéral des États-Unis en 2020 par le biais de la Coronavirus Aid, Relief, and Economic Security Act (CARES Act) pour aider certaines entreprises, travailleurs indépendants, propriétaires, certaines organisations à but non lucratif  à continuer à payer leurs employés pendant la crise du covid. Le programme est mis en œuvre par la Small Business Administration des États-Unis. La date limite pour présenter une demande de prêt PPP était initialement le 30 juin 2020, puis a été prolongée jusqu’au 8 août. Le Programme a été rouvert le 11 janvier 2021.
 </t>
